--- a/fms/src/main/resources/static/EXCEL/夹具实体.xlsx
+++ b/fms/src/main/resources/static/EXCEL/夹具实体.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Terry\Web\TMS-forestage\EXCEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henry Hu.DESKTOP-C8EDL2H\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4743B37A-EBD7-4FF0-8669-CC6FC8FB6D86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94C1D15-3EE2-480B-9441-AC2B6036E364}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="夹具实体表" sheetId="4" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="84">
-  <si>
-    <t>Code</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="86">
   <si>
     <t>EF2189</t>
   </si>
@@ -100,18 +97,6 @@
   </si>
   <si>
     <t>EF2241</t>
-  </si>
-  <si>
-    <t>SeqID</t>
-  </si>
-  <si>
-    <t>BillNo</t>
-  </si>
-  <si>
-    <t>RegDate</t>
-  </si>
-  <si>
-    <t>UsedCount</t>
   </si>
   <si>
     <t>BO19070500000002</t>
@@ -278,7 +263,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>StoreHouse</t>
+    <t>code</t>
+  </si>
+  <si>
+    <t>seqId</t>
+  </si>
+  <si>
+    <t>billNo</t>
+  </si>
+  <si>
+    <t>regDate</t>
+  </si>
+  <si>
+    <t>usedCount</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>2020-03-28</t>
+  </si>
+  <si>
+    <t>2020-03-28</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -286,9 +292,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -362,16 +365,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -657,758 +660,758 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.21875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="11.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" style="6" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>27</v>
+        <v>80</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="5">
-        <v>43651.696331018517</v>
+        <v>24</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="E2" s="2">
         <v>3</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="5">
-        <v>43651.696396956017</v>
+        <v>26</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="E3" s="2">
         <v>32</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="5">
-        <v>43675.371139780094</v>
+        <v>27</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="5">
-        <v>43719.364792743057</v>
+        <v>28</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="E5" s="2">
         <v>5</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="5">
-        <v>43658.377286655093</v>
+        <v>29</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="E6" s="2">
         <v>2</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2">
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="5">
-        <v>43658.377367905094</v>
+        <v>30</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="5">
-        <v>43655.658851006941</v>
+        <v>31</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F8" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="2">
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="5">
-        <v>43656.368223495374</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="D12" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="5">
-        <v>43658.377471562497</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    </row>
+    <row r="13" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="B11" s="2">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="5">
-        <v>43651.696275694441</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="2">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="5">
-        <v>43651.696153969904</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="B13" s="2">
         <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="5">
-        <v>43651.696212650466</v>
+        <v>39</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="E13" s="2">
         <v>23</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F13" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="5">
-        <v>43655.658792824077</v>
+        <v>41</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F14" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" s="2">
         <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="5">
-        <v>43704.391801006946</v>
+        <v>43</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F15" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="5">
-        <v>43704.391862812503</v>
+        <v>45</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F16" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" s="2">
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="5">
-        <v>43651.696098182867</v>
+        <v>47</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F17" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" s="2">
         <v>2</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="5">
-        <v>43655.658934293984</v>
+        <v>49</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="E18" s="2">
         <v>45</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F18" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19" s="2">
         <v>3</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="5">
-        <v>43655.659008761577</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="2">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="5">
-        <v>43651.696044328703</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="2">
-        <v>1</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="5">
-        <v>43658.3772040162</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B22" s="2">
         <v>3</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="5">
-        <v>43686.689376041664</v>
+        <v>57</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="E22" s="2">
         <v>0</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F22" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B23" s="2">
         <v>4</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="5">
-        <v>43686.689624189814</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="2">
-        <v>1</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" s="5">
-        <v>43662.673342858798</v>
-      </c>
-      <c r="E24" s="2">
-        <v>0</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="2">
-        <v>1</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" s="5">
-        <v>43662.673124386572</v>
-      </c>
-      <c r="E25" s="2">
-        <v>0</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="2">
-        <v>1</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" s="5">
-        <v>43662.673253935187</v>
-      </c>
-      <c r="E26" s="2">
-        <v>0</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" s="2">
-        <v>1</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" s="5">
-        <v>43675.37045292824</v>
-      </c>
-      <c r="E27" s="2">
-        <v>0</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B28" s="2">
         <v>2</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" s="5">
-        <v>43684.35812542824</v>
+        <v>64</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="E28" s="2">
         <v>0</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F28" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B29" s="2">
         <v>3</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="5">
-        <v>43684.358178472219</v>
-      </c>
-      <c r="E29" s="2">
-        <v>0</v>
-      </c>
-      <c r="F29" s="7" t="s">
+      <c r="D33" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" s="2">
-        <v>1</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="D34" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" s="2">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D30" s="5">
-        <v>43769.529590081016</v>
-      </c>
-      <c r="E30" s="2">
-        <v>0</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="2">
-        <v>1</v>
-      </c>
-      <c r="C31" s="2" t="s">
+      <c r="D35" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D31" s="5">
-        <v>43769.529530324071</v>
-      </c>
-      <c r="E31" s="2">
-        <v>0</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B32" s="2">
-        <v>1</v>
-      </c>
-      <c r="C32" s="2" t="s">
+      <c r="D36" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="2">
+        <v>1</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D32" s="5">
-        <v>43769.529470023146</v>
-      </c>
-      <c r="E32" s="2">
-        <v>0</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33" s="2">
-        <v>1</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D33" s="5">
-        <v>43769.529320914349</v>
-      </c>
-      <c r="E33" s="2">
-        <v>0</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" s="2">
-        <v>1</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D34" s="5">
-        <v>43769.529264965277</v>
-      </c>
-      <c r="E34" s="2">
-        <v>0</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B35" s="2">
-        <v>1</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D35" s="5">
-        <v>43769.529203703707</v>
-      </c>
-      <c r="E35" s="2">
-        <v>0</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36" s="2">
-        <v>1</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D36" s="5">
-        <v>43769.52915347222</v>
-      </c>
-      <c r="E36" s="2">
-        <v>0</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B37" s="2">
-        <v>1</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D37" s="5">
-        <v>43769.529090046293</v>
+      <c r="D37" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="E37" s="2">
         <v>0</v>
       </c>
-      <c r="F37" s="7" t="s">
-        <v>30</v>
+      <c r="F37" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
